--- a/Comparación de Emergencia.xlsx
+++ b/Comparación de Emergencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Documents\GitHub\CMSTP-TW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B681E5-A86D-42AB-9EA1-5CD72CE27FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4282C02F-23BE-452C-8D50-5F001B11DB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +339,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -781,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -844,6 +851,9 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -880,15 +890,64 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1166,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1187,38 +1246,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="56" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59" t="s">
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="57" t="s">
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="58"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="61"/>
     </row>
     <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
@@ -2103,7 +2162,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="58" t="s">
         <v>89</v>
       </c>
       <c r="B11" s="34">
@@ -2204,7 +2263,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="58" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="34">
@@ -2305,11 +2364,11 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2375,9 +2434,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B28F0F-631C-4937-A868-68CECA5B9C95}">
   <dimension ref="A1:AZ60"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ59" sqref="AQ59"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA45" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2386,10 +2447,12 @@
     <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.44140625" style="45" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" style="45" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.44140625" style="45" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
@@ -2425,76 +2488,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="62" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="62" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65" t="s">
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="62" t="s">
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="62" t="s">
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="62" t="s">
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="62" t="s">
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="62" t="s">
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="62" t="s">
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="64"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="67"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6427,7 +6490,7 @@
       <c r="AD24" s="48">
         <v>60.036709999999999</v>
       </c>
-      <c r="AE24" s="11">
+      <c r="AE24" s="71">
         <f t="shared" si="4"/>
         <v>1.4393393510116382E-2</v>
       </c>
@@ -12697,7 +12760,11 @@
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
   </mergeCells>
+  <conditionalFormatting sqref="AF1:AF1048576">
+    <cfRule type="top10" dxfId="4" priority="1" rank="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12705,9 +12772,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C066F87-3ABB-4A67-A3E7-54A3BC881B84}">
   <dimension ref="A1:AZ60"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV3" sqref="AV3:AX58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S30" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12755,76 +12824,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="62" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="62" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65" t="s">
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="62" t="s">
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="62" t="s">
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="62" t="s">
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="62" t="s">
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="62" t="s">
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="62" t="s">
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="64"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="67"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -23016,17 +23085,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
   </mergeCells>
+  <conditionalFormatting sqref="AF1:AF1048576">
+    <cfRule type="top10" dxfId="3" priority="1" rank="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23035,9 +23107,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C56B697-D74B-4217-8016-ED09BA1F403D}">
   <dimension ref="A1:AZ60"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV3" sqref="AV3:AX58"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W54" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23085,76 +23159,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="62" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="62" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65" t="s">
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="62" t="s">
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="62" t="s">
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="62" t="s">
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="62" t="s">
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="62" t="s">
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="62" t="s">
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="64"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="67"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -33346,17 +33420,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
   </mergeCells>
+  <conditionalFormatting sqref="AF1:AF1048576">
+    <cfRule type="top10" dxfId="2" priority="1" rank="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33365,9 +33442,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF4EA3F-CE61-44E8-BC13-A3FF41FE94EC}">
   <dimension ref="A1:AZ60"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV3" sqref="AV3:AX58"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33415,76 +33494,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="62" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="62" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65" t="s">
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="62" t="s">
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="62" t="s">
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="62" t="s">
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="62" t="s">
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="62" t="s">
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="62" t="s">
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="64"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="67"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -43676,17 +43755,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
   </mergeCells>
+  <conditionalFormatting sqref="AF1:AF1048576">
+    <cfRule type="top10" dxfId="1" priority="1" rank="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -43695,9 +43777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBFCDDE-97AC-443B-B2F8-6805BDD9D029}">
   <dimension ref="A1:AZ60"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV3" sqref="AV3:AX58"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="V45" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43745,76 +43829,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="62" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="62" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65" t="s">
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="62" t="s">
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="62" t="s">
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="62" t="s">
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="62" t="s">
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="62" t="s">
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="62" t="s">
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="64"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="67"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -54006,17 +54090,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
   </mergeCells>
+  <conditionalFormatting sqref="AF1:AF1048576">
+    <cfRule type="top10" dxfId="0" priority="1" rank="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Comparación de Emergencia.xlsx
+++ b/Comparación de Emergencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Documents\GitHub\CMSTP-TW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4282C02F-23BE-452C-8D50-5F001B11DB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7F6B55-596C-44A9-943B-51E8D5C3C75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,6 +854,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -890,7 +891,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,38 +1246,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="59" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="60" t="s">
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="62"/>
     </row>
     <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
@@ -2434,11 +2434,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B28F0F-631C-4937-A868-68CECA5B9C95}">
   <dimension ref="A1:AZ60"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA45" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF14" sqref="AF14"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2488,76 +2488,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="65" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="65" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="65" t="s">
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="65" t="s">
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="65" t="s">
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="65" t="s">
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="65" t="s">
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="68"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6490,7 +6490,7 @@
       <c r="AD24" s="48">
         <v>60.036709999999999</v>
       </c>
-      <c r="AE24" s="71">
+      <c r="AE24" s="59">
         <f t="shared" si="4"/>
         <v>1.4393393510116382E-2</v>
       </c>
@@ -12772,11 +12772,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C066F87-3ABB-4A67-A3E7-54A3BC881B84}">
   <dimension ref="A1:AZ60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S30" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C1:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12824,76 +12824,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="65" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="65" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="65" t="s">
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="65" t="s">
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="65" t="s">
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="65" t="s">
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="65" t="s">
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="68"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -23085,16 +23085,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="AF1:AF1048576">
     <cfRule type="top10" dxfId="3" priority="1" rank="4"/>
@@ -23108,10 +23108,10 @@
   <dimension ref="A1:AZ60"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C1:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23159,76 +23159,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="65" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="65" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="65" t="s">
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="65" t="s">
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="65" t="s">
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="65" t="s">
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="65" t="s">
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="68"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -33420,16 +33420,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AV1:AZ1"/>
   </mergeCells>
   <conditionalFormatting sqref="AF1:AF1048576">
     <cfRule type="top10" dxfId="2" priority="1" rank="4"/>
@@ -33442,11 +33442,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF4EA3F-CE61-44E8-BC13-A3FF41FE94EC}">
   <dimension ref="A1:AZ60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T21" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="AZ2" sqref="C1:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33494,76 +33494,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="65" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="65" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="65" t="s">
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="65" t="s">
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="65" t="s">
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="65" t="s">
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="65" t="s">
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="68"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -43755,16 +43755,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AV1:AZ1"/>
   </mergeCells>
   <conditionalFormatting sqref="AF1:AF1048576">
     <cfRule type="top10" dxfId="1" priority="1" rank="4"/>
@@ -43777,128 +43777,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBFCDDE-97AC-443B-B2F8-6805BDD9D029}">
   <dimension ref="A1:AZ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" style="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="65" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="65" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="65" t="s">
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="65" t="s">
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="65" t="s">
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="65" t="s">
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="65" t="s">
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="68"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -54090,16 +54092,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AV1:AZ1"/>
   </mergeCells>
   <conditionalFormatting sqref="AF1:AF1048576">
     <cfRule type="top10" dxfId="0" priority="1" rank="4"/>
